--- a/com.crm.vtiger/src/test/resources/testdata.xlsx
+++ b/com.crm.vtiger/src/test/resources/testdata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>username</t>
   </si>

--- a/com.crm.vtiger/src/test/resources/testdata.xlsx
+++ b/com.crm.vtiger/src/test/resources/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\eclipse-workspace\com.crm.vtiger\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\git\repository2\com.crm.vtiger\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A804A6CE-CDC4-42AC-8600-F6860F726980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5C21D0-6259-4EAD-AABB-F77FB75BDA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,15 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
-  <si>
-    <t>username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Sustine</t>
@@ -75,9 +69,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,28 +363,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -407,9 +387,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
